--- a/05-Power-Budget/PowerBudgetRoshan.xlsx
+++ b/05-Power-Budget/PowerBudgetRoshan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grosh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF82C3D-D487-4547-9522-E137D3709DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3FFF55-C079-4CA6-9F6A-479F984C4ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>Power Budget</t>
   </si>
@@ -98,27 +98,6 @@
     <t>mA</t>
   </si>
   <si>
-    <t>Ambient Light Sensor</t>
-  </si>
-  <si>
-    <t>Vishay TEMT6000</t>
-  </si>
-  <si>
-    <t>+3.3V to +5V</t>
-  </si>
-  <si>
-    <t>Op-amp (non-inverting)</t>
-  </si>
-  <si>
-    <t>TI LM358N</t>
-  </si>
-  <si>
-    <t>Status LED (PWM)</t>
-  </si>
-  <si>
-    <t>Broadcom HLMP-4700 (Red)</t>
-  </si>
-  <si>
     <t>5V Regulator</t>
   </si>
   <si>
@@ -153,6 +132,30 @@
   </si>
   <si>
     <t>Total Remaining Current Available on +5V Power Rail</t>
+  </si>
+  <si>
+    <t>Distance sensor</t>
+  </si>
+  <si>
+    <t>GP2Y0A21YK0F</t>
+  </si>
+  <si>
+    <t>Dual op amp</t>
+  </si>
+  <si>
+    <t>MCP6002</t>
+  </si>
+  <si>
+    <t>Debug LED</t>
+  </si>
+  <si>
+    <t>LED (Red) + 330 Ω</t>
+  </si>
+  <si>
+    <t>Bias Network</t>
+  </si>
+  <si>
+    <t>RV1 10 k, R8 etc</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -248,6 +251,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +556,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -672,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" s="4">
         <v>50</v>
@@ -683,22 +690,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G12" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>20</v>
@@ -706,10 +713,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -718,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>20</v>
@@ -729,10 +736,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -741,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>20</v>
@@ -752,90 +759,90 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
         <v>500</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>500</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4">
-        <v>50</v>
-      </c>
-      <c r="G19" s="4">
-        <v>50</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
@@ -844,10 +851,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G20" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>20</v>
@@ -855,10 +862,10 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
@@ -867,109 +874,178 @@
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G21" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4">
+        <v>10</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1">
+        <f>SUM(G20:G24)</f>
+        <v>93</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1">
+        <f>G25*((G26/100) + 1)</f>
+        <v>116.25</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>500</v>
+      </c>
+      <c r="G29" s="4">
+        <v>500</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="1">
-        <f>G19+G20+G21</f>
-        <v>75</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="1">
-        <v>25</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1">
-        <f>G22*((G23/100) + 1)</f>
-        <v>93.75</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>500</v>
-      </c>
-      <c r="G26" s="4">
-        <v>500</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
-        <f>G26-G24</f>
-        <v>406.25</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <f>G29-G27</f>
+        <v>383.75</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -977,9 +1053,10 @@
   <mergeCells count="4">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>